--- a/BankServiceRepport.xlsx
+++ b/BankServiceRepport.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="6">
   <si>
     <t>Pagador</t>
   </si>
@@ -76,7 +76,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -107,7 +107,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>45243.57419126158</v>
+        <v>45250.60827268518</v>
       </c>
     </row>
     <row r="3">
@@ -121,7 +121,133 @@
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>45243.57655384259</v>
+        <v>45250.61067469908</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>45250.61442586806</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>45250.61745326389</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>45250.621475625</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>45250.62465420139</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>45250.628599282405</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>45250.631479537034</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="n">
+        <v>45250.635304965275</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>45250.638689050924</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="n">
+        <v>45250.64286429398</v>
       </c>
     </row>
   </sheetData>

--- a/BankServiceRepport.xlsx
+++ b/BankServiceRepport.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="6">
   <si>
     <t>Pagador</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>Timestamp</t>
+  </si>
+  <si>
+    <t>MobilityCompany</t>
+  </si>
+  <si>
+    <t>D1</t>
   </si>
 </sst>
 </file>
@@ -70,7 +76,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -88,6 +94,90 @@
       </c>
       <c r="D1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>45262.712759699076</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>45262.713720023145</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>45262.71517917824</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>45262.71607657408</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>45262.71751649305</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>45262.718644444445</v>
       </c>
     </row>
   </sheetData>

--- a/BankServiceRepport.xlsx
+++ b/BankServiceRepport.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="6">
   <si>
     <t>Pagador</t>
   </si>
@@ -76,7 +76,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -107,7 +107,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>45262.712759699076</v>
+        <v>45262.742241851854</v>
       </c>
     </row>
     <row r="3">
@@ -121,7 +121,7 @@
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>45262.713720023145</v>
+        <v>45262.743162743056</v>
       </c>
     </row>
     <row r="4">
@@ -135,7 +135,7 @@
         <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>45262.71517917824</v>
+        <v>45262.74417859954</v>
       </c>
     </row>
     <row r="5">
@@ -149,35 +149,7 @@
         <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>45262.71607657408</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>45262.71751649305</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="n">
-        <v>45262.718644444445</v>
+        <v>45262.744987592596</v>
       </c>
     </row>
   </sheetData>

--- a/BankServiceRepport.xlsx
+++ b/BankServiceRepport.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
   <si>
     <t>Pagador</t>
   </si>
@@ -76,7 +76,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -107,7 +107,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>45262.742241851854</v>
+        <v>45263.09483810185</v>
       </c>
     </row>
     <row r="3">
@@ -121,7 +121,7 @@
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>45262.743162743056</v>
+        <v>45263.09532380787</v>
       </c>
     </row>
     <row r="4">
@@ -135,21 +135,7 @@
         <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>45262.74417859954</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>45262.744987592596</v>
+        <v>45263.0958902662</v>
       </c>
     </row>
   </sheetData>

--- a/BankServiceRepport.xlsx
+++ b/BankServiceRepport.xlsx
@@ -107,7 +107,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>45263.09483810185</v>
+        <v>45263.51879659722</v>
       </c>
     </row>
     <row r="3">
@@ -121,7 +121,7 @@
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>45263.09532380787</v>
+        <v>45263.519293310186</v>
       </c>
     </row>
     <row r="4">
@@ -135,7 +135,7 @@
         <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>45263.0958902662</v>
+        <v>45263.51985621528</v>
       </c>
     </row>
   </sheetData>

--- a/BankServiceRepport.xlsx
+++ b/BankServiceRepport.xlsx
@@ -107,7 +107,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>45263.51879659722</v>
+        <v>45263.66930769676</v>
       </c>
     </row>
     <row r="3">
@@ -121,7 +121,7 @@
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>45263.519293310186</v>
+        <v>45263.67059601852</v>
       </c>
     </row>
     <row r="4">
@@ -135,7 +135,7 @@
         <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>45263.51985621528</v>
+        <v>45263.67193927083</v>
       </c>
     </row>
   </sheetData>

--- a/BankServiceRepport.xlsx
+++ b/BankServiceRepport.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="6">
   <si>
     <t>Pagador</t>
   </si>
@@ -76,7 +76,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D69"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -107,7 +107,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>45263.66930769676</v>
+        <v>45263.75930765046</v>
       </c>
     </row>
     <row r="3">
@@ -121,7 +121,7 @@
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>45263.67059601852</v>
+        <v>45263.76050640046</v>
       </c>
     </row>
     <row r="4">
@@ -135,7 +135,917 @@
         <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>45263.67193927083</v>
+        <v>45263.76192064815</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>45263.7631233912</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>45263.76433895833</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>45263.76577655093</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>45263.76715505787</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>45263.76839611111</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="n">
+        <v>45263.76978207176</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>45263.77127350694</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="n">
+        <v>45263.772543252315</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="n">
+        <v>45263.77392753472</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="n">
+        <v>45263.77517267361</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="n">
+        <v>45263.77637451389</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
+        <v>45263.77763575232</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="n">
+        <v>45263.779018263886</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="n">
+        <v>45263.78029451389</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="n">
+        <v>45263.78156940972</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="n">
+        <v>45263.78300699074</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="n">
+        <v>45263.78428768519</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="n">
+        <v>45263.78551797454</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="n">
+        <v>45263.7867609838</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="n">
+        <v>45263.788039652776</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="n">
+        <v>45263.79049386574</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" t="n">
+        <v>45263.79203063658</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" t="n">
+        <v>45263.793586203705</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" t="n">
+        <v>45263.795019606485</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" t="n">
+        <v>45263.79649744213</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="n">
+        <v>45263.79794488426</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" t="n">
+        <v>45263.799126377315</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" t="n">
+        <v>45263.80041091435</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" t="n">
+        <v>45263.8016055787</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" t="n">
+        <v>45263.80282966435</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" t="n">
+        <v>45263.80411146991</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" t="n">
+        <v>45263.80661488426</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" t="n">
+        <v>45263.807785983794</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" t="n">
+        <v>45263.80913538195</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" t="n">
+        <v>45263.81034416667</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" t="n">
+        <v>45263.81139538194</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" t="n">
+        <v>45263.81265314815</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C42" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" t="n">
+        <v>45263.81386731481</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" t="n">
+        <v>45263.81514962963</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" t="n">
+        <v>45263.81650892361</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" t="n">
+        <v>45263.81766688657</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" t="n">
+        <v>45263.81883869213</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" t="n">
+        <v>45263.82219899305</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" t="n">
+        <v>45263.823334988425</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C49" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" t="n">
+        <v>45263.824649131944</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" t="n">
+        <v>45263.82592314815</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" t="n">
+        <v>45263.827290532405</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" t="n">
+        <v>45263.82868622685</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" t="n">
+        <v>45263.830004641204</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" t="n">
+        <v>45263.831123668984</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C55" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" t="n">
+        <v>45263.83238908565</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C56" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" t="n">
+        <v>45263.833549641204</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C57" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" t="n">
+        <v>45263.83476990741</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C58" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" t="n">
+        <v>45263.83599825232</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C59" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" t="n">
+        <v>45263.83720741898</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C60" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" t="n">
+        <v>45263.838464328706</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C61" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" t="n">
+        <v>45263.83961274305</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C62" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" t="n">
+        <v>45263.84079055556</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C63" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" t="n">
+        <v>45263.8419287037</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C64" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" t="n">
+        <v>45263.84310337963</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C65" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" t="n">
+        <v>45263.84427122685</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C66" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" t="n">
+        <v>45263.84555445602</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C67" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" t="n">
+        <v>45263.84696778935</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C68" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" t="n">
+        <v>45263.84864145833</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C69" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" t="n">
+        <v>45263.8503321875</v>
       </c>
     </row>
   </sheetData>
